--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +807,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +900,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1142,10 +1154,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1189,28 +1201,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1235,28 +1247,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1460,10 +1472,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1507,28 +1519,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1553,28 +1565,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1703,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1738,28 +1750,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1796,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1951,10 +1963,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1998,28 +2010,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2044,28 +2056,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2269,10 +2281,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2316,28 +2328,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2362,28 +2374,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2500,10 +2512,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2547,28 +2559,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2593,28 +2605,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2789,10 +2801,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2836,28 +2848,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2882,28 +2894,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3078,10 +3090,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3125,28 +3137,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3171,28 +3183,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3338,10 +3350,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3385,28 +3397,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3431,28 +3443,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3656,10 +3668,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3703,28 +3715,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3749,28 +3761,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3916,10 +3928,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3963,28 +3975,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4009,28 +4021,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4176,10 +4188,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4223,28 +4235,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4269,28 +4281,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4378,10 +4390,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4425,28 +4437,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4471,28 +4483,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4667,10 +4679,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4714,28 +4726,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4760,28 +4772,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4927,10 +4939,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4974,28 +4986,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5020,28 +5032,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5187,10 +5199,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5234,28 +5246,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5280,28 +5292,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5476,10 +5488,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5523,28 +5535,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5569,28 +5581,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5707,10 +5719,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5754,28 +5766,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5800,28 +5812,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5967,10 +5979,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6014,28 +6026,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6060,28 +6072,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6198,10 +6210,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6245,28 +6257,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6291,28 +6303,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6371,10 +6383,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
